--- a/TestLoginDetails/UserData/User_Login_Data.xlsx
+++ b/TestLoginDetails/UserData/User_Login_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11400"/>
+    <workbookView windowWidth="24930" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -22,10 +22,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>varsha@safety</t>
+    <t>webautomation@safety.com</t>
   </si>
   <si>
-    <t>grow1234</t>
+    <t>Grow@1234</t>
   </si>
   <si>
     <t>sanjay@safety.com</t>
@@ -33,16 +33,28 @@
   <si>
     <t>abcde</t>
   </si>
+  <si>
+    <t>abcxyz</t>
+  </si>
+  <si>
+    <t>jhsgdsa</t>
+  </si>
+  <si>
+    <t>testsafety</t>
+  </si>
+  <si>
+    <t>grow1234</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -73,6 +85,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -81,45 +101,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +162,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
@@ -179,6 +177,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -212,6 +217,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,55 +238,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,127 +376,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,21 +429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,6 +452,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,148 +532,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -930,15 +942,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.3818181818182" customWidth="1"/>
+    <col min="1" max="1" width="24.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -965,6 +977,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
